--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Objetos 3D\AREP\AREP_TallerMVN1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Objetos 3D\AREP\Laboratorio 2\AREP-TallerSPARKWEB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC8F611-4E12-406C-ADC3-49BAAC9D9A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83518454-0012-4630-9211-285187B19381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Diseño</t>
   </si>
@@ -164,9 +164,6 @@
     <t>El proceso de despliegue está automatizado (No en el primer taller)</t>
   </si>
   <si>
-    <t>14 de agosto del 2020</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
@@ -179,13 +176,13 @@
     <t>Johan Nicolas Cortes Torres</t>
   </si>
   <si>
-    <t>https://github.com/jnicolasct/AREP-LAB1</t>
-  </si>
-  <si>
-    <t>Se recomienda mejorar en la lectura de datos y realizar la respectiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docuentacion para los metodos </t>
+    <t>https://github.com/jnicolasct/AREP-LAB-HEROKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>21 de agosto del 2020</t>
   </si>
 </sst>
 </file>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759D1B1-2861-2D40-A5C1-6BA06F856130}">
   <dimension ref="A3:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,20 +622,20 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -648,7 +645,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -658,7 +655,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -667,16 +664,14 @@
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
